--- a/Code/Results/Cases/Case_2_113/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_113/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.45503536287914</v>
+        <v>10.36449719779026</v>
       </c>
       <c r="C2">
-        <v>12.0772253377099</v>
+        <v>8.623358978591462</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.9411821313283</v>
+        <v>12.65707304454802</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>15.95041541750799</v>
+        <v>16.77363880896904</v>
       </c>
       <c r="H2">
-        <v>6.647346756337494</v>
+        <v>11.15400494107102</v>
       </c>
       <c r="I2">
-        <v>9.018026043262301</v>
+        <v>15.4657048455061</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.82625717379003</v>
+        <v>13.34558865085438</v>
       </c>
       <c r="N2">
-        <v>11.30675843315053</v>
+        <v>15.87007462938115</v>
       </c>
       <c r="O2">
-        <v>10.30342056829485</v>
+        <v>15.36939036514849</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.39762581432444</v>
+        <v>9.781117537934644</v>
       </c>
       <c r="C3">
-        <v>11.45765852815394</v>
+        <v>8.337923472744439</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.24549550964631</v>
+        <v>12.53894123891221</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>15.25758356960026</v>
+        <v>16.71939826580109</v>
       </c>
       <c r="H3">
-        <v>6.674324820193258</v>
+        <v>11.19444605686557</v>
       </c>
       <c r="I3">
-        <v>9.216487842857605</v>
+        <v>15.56148506668162</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.76785949464692</v>
+        <v>13.06469284462087</v>
       </c>
       <c r="N3">
-        <v>11.36366021747822</v>
+        <v>15.90016538456462</v>
       </c>
       <c r="O3">
-        <v>10.1953368468142</v>
+        <v>15.42063440703064</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.71163021688115</v>
+        <v>9.402698781237763</v>
       </c>
       <c r="C4">
-        <v>11.05912834604021</v>
+        <v>8.156388374404026</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.81253117223575</v>
+        <v>12.47088295625939</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>14.84234627653816</v>
+        <v>16.69474203887264</v>
       </c>
       <c r="H4">
-        <v>6.696485358951031</v>
+        <v>11.22139261345906</v>
       </c>
       <c r="I4">
-        <v>9.347711280910605</v>
+        <v>15.62394337873643</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.08269513185754</v>
+        <v>12.89181407556857</v>
       </c>
       <c r="N4">
-        <v>11.40217822659167</v>
+        <v>15.92032182493226</v>
       </c>
       <c r="O4">
-        <v>10.14117220368975</v>
+        <v>15.45650740689446</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.42288928345242</v>
+        <v>9.243468403664808</v>
       </c>
       <c r="C5">
-        <v>10.89227227669301</v>
+        <v>8.080909205742664</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.63486939216834</v>
+        <v>12.44430486528213</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>14.67597275142271</v>
+        <v>16.68687430486391</v>
       </c>
       <c r="H5">
-        <v>6.706864850184345</v>
+        <v>11.23290494786572</v>
       </c>
       <c r="I5">
-        <v>9.403422466212447</v>
+        <v>15.65031273520113</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.79460503393244</v>
+        <v>12.82136366561466</v>
       </c>
       <c r="N5">
-        <v>11.41875620044481</v>
+        <v>15.92895899691665</v>
       </c>
       <c r="O5">
-        <v>10.12207856582461</v>
+        <v>15.47223024649135</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.37439065652061</v>
+        <v>9.21672717424045</v>
       </c>
       <c r="C6">
-        <v>10.86430052790474</v>
+        <v>8.068287599201634</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.60530247318639</v>
+        <v>12.43996227279436</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>14.64852645025206</v>
+        <v>16.68569960713246</v>
       </c>
       <c r="H6">
-        <v>6.708668145302105</v>
+        <v>11.23484864013371</v>
       </c>
       <c r="I6">
-        <v>9.412805102698821</v>
+        <v>15.65474672458198</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.74623178231116</v>
+        <v>12.80966839124466</v>
       </c>
       <c r="N6">
-        <v>11.42156167902376</v>
+        <v>15.93041877591827</v>
       </c>
       <c r="O6">
-        <v>10.11908519897647</v>
+        <v>15.47490757711539</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.70777329796175</v>
+        <v>9.400571582625608</v>
       </c>
       <c r="C7">
-        <v>11.05689593944054</v>
+        <v>8.155376411751805</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.8101397829668</v>
+        <v>12.47051979466703</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>14.84009062945113</v>
+        <v>16.69462710167077</v>
       </c>
       <c r="H7">
-        <v>6.696619954914583</v>
+        <v>11.22154572200593</v>
       </c>
       <c r="I7">
-        <v>9.348453713936385</v>
+        <v>15.62429529240474</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.07884579569469</v>
+        <v>12.8908638243181</v>
       </c>
       <c r="N7">
-        <v>11.40239825738722</v>
+        <v>15.92043659422352</v>
       </c>
       <c r="O7">
-        <v>10.14090276382062</v>
+        <v>15.45671498528059</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.09808845483303</v>
+        <v>10.16757817121572</v>
       </c>
       <c r="C8">
-        <v>11.86741334409226</v>
+        <v>8.526286817041496</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.7026439171923</v>
+        <v>12.6154317904885</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>15.70958383759514</v>
+        <v>16.75314633561889</v>
       </c>
       <c r="H8">
-        <v>6.65545200393753</v>
+        <v>11.16750961104937</v>
       </c>
       <c r="I8">
-        <v>9.084436177223809</v>
+        <v>15.49797226196492</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.4686427887008</v>
+        <v>13.24888049094879</v>
       </c>
       <c r="N8">
-        <v>11.32562357096895</v>
+        <v>15.88010150984763</v>
       </c>
       <c r="O8">
-        <v>10.26357141234808</v>
+        <v>15.38614167488298</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.53184110649504</v>
+        <v>11.5091520536022</v>
       </c>
       <c r="C9">
-        <v>13.3096329535865</v>
+        <v>9.20087942558599</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.39849313777691</v>
+        <v>12.93361945581471</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>17.48365577081211</v>
+        <v>16.93607747533056</v>
       </c>
       <c r="H9">
-        <v>6.621776227381315</v>
+        <v>11.07835649470376</v>
       </c>
       <c r="I9">
-        <v>8.647037921295352</v>
+        <v>15.2792259792872</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.91478162089722</v>
+        <v>13.94340300237671</v>
       </c>
       <c r="N9">
-        <v>11.20436643414708</v>
+        <v>15.81431054464555</v>
       </c>
       <c r="O9">
-        <v>10.60429745520412</v>
+        <v>15.282916181304</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.14108176439039</v>
+        <v>12.39373034142104</v>
       </c>
       <c r="C10">
-        <v>14.27608295342387</v>
+        <v>9.660881012520868</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.7295094198519</v>
+        <v>13.18596357980648</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>18.81525895894026</v>
+        <v>17.11115656477154</v>
       </c>
       <c r="H10">
-        <v>6.629405250526708</v>
+        <v>11.02313913719189</v>
       </c>
       <c r="I10">
-        <v>8.384077556220799</v>
+        <v>15.13620497846846</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.54381517214521</v>
+        <v>14.44355600993458</v>
       </c>
       <c r="N10">
-        <v>11.13445028400951</v>
+        <v>15.77404726193109</v>
       </c>
       <c r="O10">
-        <v>10.91947399447138</v>
+        <v>15.22875483619973</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.83447892631733</v>
+        <v>12.77395220743509</v>
       </c>
       <c r="C11">
-        <v>14.69509415334364</v>
+        <v>9.861814874741498</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.35551090080331</v>
+        <v>13.30429501503863</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>19.42482416253659</v>
+        <v>17.19936520153037</v>
       </c>
       <c r="H11">
-        <v>6.640704599211436</v>
+        <v>11.00025964215478</v>
       </c>
       <c r="I11">
-        <v>8.279535668757489</v>
+        <v>15.07499041055798</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.24904757769343</v>
+        <v>14.6678151469412</v>
       </c>
       <c r="N11">
-        <v>11.1071162538079</v>
+        <v>15.75747541915428</v>
       </c>
       <c r="O11">
-        <v>11.07751182263449</v>
+        <v>15.20886822587203</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.09151351465663</v>
+        <v>12.91473028638625</v>
       </c>
       <c r="C12">
-        <v>14.85077521130724</v>
+        <v>9.936664399025258</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.58923952701756</v>
+        <v>13.34956930202903</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>19.65604803186671</v>
+        <v>17.23397060350579</v>
       </c>
       <c r="H12">
-        <v>6.646174963729044</v>
+        <v>10.99191838698402</v>
       </c>
       <c r="I12">
-        <v>8.242343703377028</v>
+        <v>15.05236407062119</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.51101258468141</v>
+        <v>14.75218407510447</v>
       </c>
       <c r="N12">
-        <v>11.09743613593523</v>
+        <v>15.75145024647512</v>
       </c>
       <c r="O12">
-        <v>11.13949772586515</v>
+        <v>15.2020242187067</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.03640253169255</v>
+        <v>12.88455387261889</v>
       </c>
       <c r="C13">
-        <v>14.81737971831241</v>
+        <v>9.920599980112474</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.53904832386988</v>
+        <v>13.33979871546775</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>19.60623435106003</v>
+        <v>17.22646471588208</v>
       </c>
       <c r="H13">
-        <v>6.644942784125914</v>
+        <v>10.99370046135209</v>
       </c>
       <c r="I13">
-        <v>8.250243255903914</v>
+        <v>15.0572123859632</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.45481912553063</v>
+        <v>14.73403959660058</v>
       </c>
       <c r="N13">
-        <v>11.09949063476526</v>
+        <v>15.75273675563719</v>
       </c>
       <c r="O13">
-        <v>11.12605233676789</v>
+        <v>15.20346761081727</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.85573621167467</v>
+        <v>12.78559837724323</v>
       </c>
       <c r="C14">
-        <v>14.70796213357021</v>
+        <v>9.867997863664103</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.37480601683016</v>
+        <v>13.30801069928009</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>19.44383993334518</v>
+        <v>17.20218828212352</v>
       </c>
       <c r="H14">
-        <v>6.64113039322144</v>
+        <v>10.99956693030782</v>
       </c>
       <c r="I14">
-        <v>8.276426469546253</v>
+        <v>15.0731178121343</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.27070125967028</v>
+        <v>14.67476777665692</v>
       </c>
       <c r="N14">
-        <v>11.10630625854179</v>
+        <v>15.75697471301777</v>
       </c>
       <c r="O14">
-        <v>11.08256838991774</v>
+        <v>15.20829138643197</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.74435209520323</v>
+        <v>12.72456771689219</v>
       </c>
       <c r="C15">
-        <v>14.64055089677863</v>
+        <v>9.835614912463422</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.2737725184281</v>
+        <v>13.28859882134613</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>19.34441611083256</v>
+        <v>17.18747397871338</v>
       </c>
       <c r="H15">
-        <v>6.638952316024261</v>
+        <v>11.00320236002979</v>
       </c>
       <c r="I15">
-        <v>8.29278355989193</v>
+        <v>15.08293256607506</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.15726264326219</v>
+        <v>14.63838764187032</v>
       </c>
       <c r="N15">
-        <v>11.11056921865572</v>
+        <v>15.75960315371075</v>
       </c>
       <c r="O15">
-        <v>11.05621276576104</v>
+        <v>15.21133560002169</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.09499022375565</v>
+        <v>12.36843431573013</v>
       </c>
       <c r="C16">
-        <v>14.24828226231085</v>
+        <v>9.64757823660487</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.68812885426241</v>
+        <v>13.17829779817789</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>18.77548524468011</v>
+        <v>17.10556187369517</v>
       </c>
       <c r="H16">
-        <v>6.628829974630468</v>
+        <v>11.02467948578478</v>
       </c>
       <c r="I16">
-        <v>8.391232000761272</v>
+        <v>15.14028299292646</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.49701068367759</v>
+        <v>14.42882719100155</v>
       </c>
       <c r="N16">
-        <v>11.13632893330149</v>
+        <v>15.77516531765805</v>
       </c>
       <c r="O16">
-        <v>10.90944382667013</v>
+        <v>15.23015038122338</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.6867382669555</v>
+        <v>12.14426578658191</v>
       </c>
       <c r="C17">
-        <v>14.00233456129426</v>
+        <v>9.530059791627322</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.32284400430114</v>
+        <v>13.11150694229949</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>18.42732086340153</v>
+        <v>17.05748557746532</v>
       </c>
       <c r="H17">
-        <v>6.624672251115513</v>
+        <v>11.03842902788372</v>
       </c>
       <c r="I17">
-        <v>8.455644201508568</v>
+        <v>15.176451592104</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.08283261236539</v>
+        <v>14.29937149518354</v>
       </c>
       <c r="N17">
-        <v>11.15329609224315</v>
+        <v>15.78515850225448</v>
       </c>
       <c r="O17">
-        <v>10.82318678423034</v>
+        <v>15.24291213132193</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.4482825741503</v>
+        <v>12.013243055735</v>
       </c>
       <c r="C18">
-        <v>13.85893064644872</v>
+        <v>9.461685076175456</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.11050769422554</v>
+        <v>13.07342640694332</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>18.22743175685696</v>
+        <v>17.03064143149555</v>
       </c>
       <c r="H18">
-        <v>6.623013797360968</v>
+        <v>11.04654811822325</v>
       </c>
       <c r="I18">
-        <v>8.49409687984568</v>
+        <v>15.19761677963524</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.84123239160411</v>
+        <v>14.2246095589276</v>
       </c>
       <c r="N18">
-        <v>11.16347424590609</v>
+        <v>15.79107051777764</v>
       </c>
       <c r="O18">
-        <v>10.77495280980589</v>
+        <v>15.25069942137259</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.36691996121226</v>
+        <v>11.96852311170593</v>
       </c>
       <c r="C19">
-        <v>13.81004397877975</v>
+        <v>9.438401795025444</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.03822835128677</v>
+        <v>13.06059199671625</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>18.15982081448252</v>
+        <v>17.02169207219632</v>
       </c>
       <c r="H19">
-        <v>6.6225761530011</v>
+        <v>11.04933327137421</v>
       </c>
       <c r="I19">
-        <v>8.507350945014883</v>
+        <v>15.20484508185094</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.75884918219327</v>
+        <v>14.19924715235053</v>
       </c>
       <c r="N19">
-        <v>11.16699155424872</v>
+        <v>15.79310044379887</v>
       </c>
       <c r="O19">
-        <v>10.75885730662364</v>
+        <v>15.25341274149199</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.73057399563483</v>
+        <v>12.16834502003559</v>
       </c>
       <c r="C20">
-        <v>14.0287172266628</v>
+        <v>9.542651011430099</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.36195988940526</v>
+        <v>13.11858250622472</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>18.46434691509504</v>
+        <v>17.06251994700407</v>
       </c>
       <c r="H20">
-        <v>6.625038512390659</v>
+        <v>11.03694355190517</v>
       </c>
       <c r="I20">
-        <v>8.448640476429068</v>
+        <v>15.17256391256532</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.12727156215112</v>
+        <v>14.31318420190494</v>
       </c>
       <c r="N20">
-        <v>11.15144633888467</v>
+        <v>15.7840777207902</v>
       </c>
       <c r="O20">
-        <v>10.83222603474016</v>
+        <v>15.24150732605617</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.90895245573991</v>
+        <v>12.81475104365535</v>
       </c>
       <c r="C21">
-        <v>14.74018199245342</v>
+        <v>9.883482342676976</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.42313748451549</v>
+        <v>13.31733535275646</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>19.49152944741298</v>
+        <v>17.20928646491081</v>
       </c>
       <c r="H21">
-        <v>6.642217323746428</v>
+        <v>10.99783504210724</v>
       </c>
       <c r="I21">
-        <v>8.268668885537021</v>
+        <v>15.06843094987005</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.32491879588662</v>
+        <v>14.69219300100399</v>
       </c>
       <c r="N21">
-        <v>11.10428591337376</v>
+        <v>15.75572313580017</v>
       </c>
       <c r="O21">
-        <v>11.09528237590945</v>
+        <v>15.20685586694384</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.64681383440203</v>
+        <v>13.21853779152592</v>
       </c>
       <c r="C22">
-        <v>15.18773717149354</v>
+        <v>10.09899278458132</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.09734727305246</v>
+        <v>13.44991976511709</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>20.18160096444874</v>
+        <v>17.31220141839842</v>
       </c>
       <c r="H22">
-        <v>6.660420188035716</v>
+        <v>10.97415671724808</v>
       </c>
       <c r="I22">
-        <v>8.165132342926878</v>
+        <v>15.00360546265419</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.07800844054112</v>
+        <v>14.93663795230497</v>
       </c>
       <c r="N22">
-        <v>11.07738714831292</v>
+        <v>15.73865000618901</v>
       </c>
       <c r="O22">
-        <v>11.27969010406652</v>
+        <v>15.18821259910888</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.25594871685488</v>
+        <v>13.00474171273053</v>
       </c>
       <c r="C23">
-        <v>14.95046817720985</v>
+        <v>9.984646308915012</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.73924760468853</v>
+        <v>13.37892578142741</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>19.80544140398342</v>
+        <v>17.25664416815107</v>
       </c>
       <c r="H23">
-        <v>6.650045066924898</v>
+        <v>10.98662190482789</v>
       </c>
       <c r="I23">
-        <v>8.219022227713209</v>
+        <v>15.03790795825662</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.67876070635088</v>
+        <v>14.80649762163172</v>
       </c>
       <c r="N23">
-        <v>11.09137495874326</v>
+        <v>15.74762902001615</v>
       </c>
       <c r="O23">
-        <v>11.18011735656574</v>
+        <v>15.1977955275478</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.71076753261871</v>
+        <v>12.15746547945982</v>
       </c>
       <c r="C24">
-        <v>14.01679586790772</v>
+        <v>9.536961046244278</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.34428285852241</v>
+        <v>13.11538264858929</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>18.44760656776954</v>
+        <v>17.06024142829225</v>
       </c>
       <c r="H24">
-        <v>6.62487065102141</v>
+        <v>11.03761446812567</v>
       </c>
       <c r="I24">
-        <v>8.451802450612158</v>
+        <v>15.17432037574417</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.10719156845499</v>
+        <v>14.30694051772172</v>
       </c>
       <c r="N24">
-        <v>11.15228129532531</v>
+        <v>15.78456582246786</v>
       </c>
       <c r="O24">
-        <v>10.82813516737201</v>
+        <v>15.24214103583105</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.90486840251745</v>
+        <v>11.16386244516981</v>
       </c>
       <c r="C25">
-        <v>12.93564506235344</v>
+        <v>9.024416119748006</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.94653046729904</v>
+        <v>12.84411527316082</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>16.99787040969425</v>
+        <v>16.87936605849923</v>
       </c>
       <c r="H25">
-        <v>6.625470940583433</v>
+        <v>11.10067137947908</v>
       </c>
       <c r="I25">
-        <v>8.755858495001375</v>
+        <v>15.33529816746625</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.28275507427708</v>
+        <v>13.75691000756917</v>
       </c>
       <c r="N25">
-        <v>11.23390283340175</v>
+        <v>15.83068821167836</v>
       </c>
       <c r="O25">
-        <v>10.50096349403114</v>
+        <v>15.30705066398344</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_113/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_113/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.36449719779026</v>
+        <v>17.45503536287915</v>
       </c>
       <c r="C2">
-        <v>8.623358978591462</v>
+        <v>12.07722533770989</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.65707304454802</v>
+        <v>12.94118213132829</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>16.77363880896904</v>
+        <v>15.95041541750797</v>
       </c>
       <c r="H2">
-        <v>11.15400494107102</v>
+        <v>6.647346756337535</v>
       </c>
       <c r="I2">
-        <v>15.4657048455061</v>
+        <v>9.018026043262301</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.34558865085438</v>
+        <v>16.82625717379003</v>
       </c>
       <c r="N2">
-        <v>15.87007462938115</v>
+        <v>11.30675843315053</v>
       </c>
       <c r="O2">
-        <v>15.36939036514849</v>
+        <v>10.30342056829484</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.781117537934644</v>
+        <v>16.39762581432448</v>
       </c>
       <c r="C3">
-        <v>8.337923472744439</v>
+        <v>11.45765852815385</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.53894123891221</v>
+        <v>12.24549550964632</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>16.71939826580109</v>
+        <v>15.25758356960025</v>
       </c>
       <c r="H3">
-        <v>11.19444605686557</v>
+        <v>6.674324820193261</v>
       </c>
       <c r="I3">
-        <v>15.56148506668162</v>
+        <v>9.216487842857548</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.06469284462087</v>
+        <v>15.7678594946469</v>
       </c>
       <c r="N3">
-        <v>15.90016538456462</v>
+        <v>11.36366021747822</v>
       </c>
       <c r="O3">
-        <v>15.42063440703064</v>
+        <v>10.1953368468142</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.402698781237763</v>
+        <v>15.71163021688116</v>
       </c>
       <c r="C4">
-        <v>8.156388374404026</v>
+        <v>11.05912834604018</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.47088295625939</v>
+        <v>11.81253117223574</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>16.69474203887264</v>
+        <v>14.8423462765382</v>
       </c>
       <c r="H4">
-        <v>11.22139261345906</v>
+        <v>6.69648535895104</v>
       </c>
       <c r="I4">
-        <v>15.62394337873643</v>
+        <v>9.347711280910618</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.89181407556857</v>
+        <v>15.08269513185756</v>
       </c>
       <c r="N4">
-        <v>15.92032182493226</v>
+        <v>11.40217822659167</v>
       </c>
       <c r="O4">
-        <v>15.45650740689446</v>
+        <v>10.14117220368977</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.243468403664808</v>
+        <v>15.42288928345248</v>
       </c>
       <c r="C5">
-        <v>8.080909205742664</v>
+        <v>10.8922722766928</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.44430486528213</v>
+        <v>11.63486939216837</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>16.68687430486391</v>
+        <v>14.67597275142272</v>
       </c>
       <c r="H5">
-        <v>11.23290494786572</v>
+        <v>6.706864850184411</v>
       </c>
       <c r="I5">
-        <v>15.65031273520113</v>
+        <v>9.403422466212456</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.82136366561466</v>
+        <v>14.79460503393243</v>
       </c>
       <c r="N5">
-        <v>15.92895899691665</v>
+        <v>11.41875620044484</v>
       </c>
       <c r="O5">
-        <v>15.47223024649135</v>
+        <v>10.12207856582464</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.21672717424045</v>
+        <v>15.37439065652063</v>
       </c>
       <c r="C6">
-        <v>8.068287599201634</v>
+        <v>10.8643005279047</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.43996227279436</v>
+        <v>11.60530247318642</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>16.68569960713246</v>
+        <v>14.64852645025215</v>
       </c>
       <c r="H6">
-        <v>11.23484864013371</v>
+        <v>6.708668145302112</v>
       </c>
       <c r="I6">
-        <v>15.65474672458198</v>
+        <v>9.412805102698838</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.80966839124466</v>
+        <v>14.74623178231111</v>
       </c>
       <c r="N6">
-        <v>15.93041877591827</v>
+        <v>11.42156167902378</v>
       </c>
       <c r="O6">
-        <v>15.47490757711539</v>
+        <v>10.11908519897649</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.400571582625608</v>
+        <v>15.70777329796182</v>
       </c>
       <c r="C7">
-        <v>8.155376411751805</v>
+        <v>11.05689593944045</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.47051979466703</v>
+        <v>11.81013978296679</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>16.69462710167077</v>
+        <v>14.84009062945111</v>
       </c>
       <c r="H7">
-        <v>11.22154572200593</v>
+        <v>6.696619954914588</v>
       </c>
       <c r="I7">
-        <v>15.62429529240474</v>
+        <v>9.348453713936362</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.8908638243181</v>
+        <v>15.07884579569473</v>
       </c>
       <c r="N7">
-        <v>15.92043659422352</v>
+        <v>11.40239825738722</v>
       </c>
       <c r="O7">
-        <v>15.45671498528059</v>
+        <v>10.1409027638206</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.16757817121572</v>
+        <v>17.09808845483305</v>
       </c>
       <c r="C8">
-        <v>8.526286817041496</v>
+        <v>11.86741334409223</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.6154317904885</v>
+        <v>12.70264391719228</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>16.75314633561889</v>
+        <v>15.70958383759516</v>
       </c>
       <c r="H8">
-        <v>11.16750961104937</v>
+        <v>6.655452003937536</v>
       </c>
       <c r="I8">
-        <v>15.49797226196492</v>
+        <v>9.084436177223813</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.24888049094879</v>
+        <v>16.46864278870082</v>
       </c>
       <c r="N8">
-        <v>15.88010150984763</v>
+        <v>11.32562357096895</v>
       </c>
       <c r="O8">
-        <v>15.38614167488298</v>
+        <v>10.26357141234809</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.5091520536022</v>
+        <v>19.53184110649502</v>
       </c>
       <c r="C9">
-        <v>9.20087942558599</v>
+        <v>13.30963295358657</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.93361945581471</v>
+        <v>14.39849313777691</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>16.93607747533056</v>
+        <v>17.48365577081214</v>
       </c>
       <c r="H9">
-        <v>11.07835649470376</v>
+        <v>6.621776227381315</v>
       </c>
       <c r="I9">
-        <v>15.2792259792872</v>
+        <v>8.647037921295407</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.94340300237671</v>
+        <v>18.91478162089721</v>
       </c>
       <c r="N9">
-        <v>15.81431054464555</v>
+        <v>11.20436643414711</v>
       </c>
       <c r="O9">
-        <v>15.282916181304</v>
+        <v>10.60429745520416</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.39373034142104</v>
+        <v>21.1410817643904</v>
       </c>
       <c r="C10">
-        <v>9.660881012520868</v>
+        <v>14.27608295342389</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.18596357980648</v>
+        <v>15.72950941985186</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>17.11115656477154</v>
+        <v>18.81525895894026</v>
       </c>
       <c r="H10">
-        <v>11.02313913719189</v>
+        <v>6.62940525052681</v>
       </c>
       <c r="I10">
-        <v>15.13620497846846</v>
+        <v>8.384077556220806</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.44355600993458</v>
+        <v>20.54381517214519</v>
       </c>
       <c r="N10">
-        <v>15.77404726193109</v>
+        <v>11.13445028400951</v>
       </c>
       <c r="O10">
-        <v>15.22875483619973</v>
+        <v>10.9194739944714</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.77395220743509</v>
+        <v>21.83447892631733</v>
       </c>
       <c r="C11">
-        <v>9.861814874741498</v>
+        <v>14.6950941533436</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.30429501503863</v>
+        <v>16.35551090080333</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>17.19936520153037</v>
+        <v>19.42482416253662</v>
       </c>
       <c r="H11">
-        <v>11.00025964215478</v>
+        <v>6.640704599211474</v>
       </c>
       <c r="I11">
-        <v>15.07499041055798</v>
+        <v>8.279535668757573</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.6678151469412</v>
+        <v>21.24904757769341</v>
       </c>
       <c r="N11">
-        <v>15.75747541915428</v>
+        <v>11.10711625380795</v>
       </c>
       <c r="O11">
-        <v>15.20886822587203</v>
+        <v>11.07751182263454</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.91473028638625</v>
+        <v>22.09151351465664</v>
       </c>
       <c r="C12">
-        <v>9.936664399025258</v>
+        <v>14.8507752113072</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.34956930202903</v>
+        <v>16.5892395270176</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>17.23397060350579</v>
+        <v>19.65604803186678</v>
       </c>
       <c r="H12">
-        <v>10.99191838698402</v>
+        <v>6.64617496372905</v>
       </c>
       <c r="I12">
-        <v>15.05236407062119</v>
+        <v>8.242343703377021</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.75218407510447</v>
+        <v>21.51101258468142</v>
       </c>
       <c r="N12">
-        <v>15.75145024647512</v>
+        <v>11.09743613593519</v>
       </c>
       <c r="O12">
-        <v>15.2020242187067</v>
+        <v>11.13949772586515</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.88455387261889</v>
+        <v>22.03640253169247</v>
       </c>
       <c r="C13">
-        <v>9.920599980112474</v>
+        <v>14.81737971831241</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.33979871546775</v>
+        <v>16.53904832386986</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>17.22646471588208</v>
+        <v>19.60623435106007</v>
       </c>
       <c r="H13">
-        <v>10.99370046135209</v>
+        <v>6.644942784125958</v>
       </c>
       <c r="I13">
-        <v>15.0572123859632</v>
+        <v>8.250243255904053</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.73403959660058</v>
+        <v>21.45481912553058</v>
       </c>
       <c r="N13">
-        <v>15.75273675563719</v>
+        <v>11.09949063476531</v>
       </c>
       <c r="O13">
-        <v>15.20346761081727</v>
+        <v>11.12605233676797</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.78559837724323</v>
+        <v>21.85573621167471</v>
       </c>
       <c r="C14">
-        <v>9.867997863664103</v>
+        <v>14.70796213357008</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.30801069928009</v>
+        <v>16.37480601683014</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>17.20218828212352</v>
+        <v>19.44383993334527</v>
       </c>
       <c r="H14">
-        <v>10.99956693030782</v>
+        <v>6.641130393221408</v>
       </c>
       <c r="I14">
-        <v>15.0731178121343</v>
+        <v>8.276426469546312</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.67476777665692</v>
+        <v>21.27070125967026</v>
       </c>
       <c r="N14">
-        <v>15.75697471301777</v>
+        <v>11.10630625854177</v>
       </c>
       <c r="O14">
-        <v>15.20829138643197</v>
+        <v>11.08256838991781</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.72456771689219</v>
+        <v>21.74435209520322</v>
       </c>
       <c r="C15">
-        <v>9.835614912463422</v>
+        <v>14.6405508967786</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.28859882134613</v>
+        <v>16.27377251842809</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>17.18747397871338</v>
+        <v>19.34441611083268</v>
       </c>
       <c r="H15">
-        <v>11.00320236002979</v>
+        <v>6.638952316024266</v>
       </c>
       <c r="I15">
-        <v>15.08293256607506</v>
+        <v>8.292783559892007</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.63838764187032</v>
+        <v>21.15726264326217</v>
       </c>
       <c r="N15">
-        <v>15.75960315371075</v>
+        <v>11.11056921865571</v>
       </c>
       <c r="O15">
-        <v>15.21133560002169</v>
+        <v>11.05621276576109</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.36843431573013</v>
+        <v>21.09499022375568</v>
       </c>
       <c r="C16">
-        <v>9.64757823660487</v>
+        <v>14.24828226231083</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.17829779817789</v>
+        <v>15.68812885426244</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>17.10556187369517</v>
+        <v>18.77548524468012</v>
       </c>
       <c r="H16">
-        <v>11.02467948578478</v>
+        <v>6.628829974630468</v>
       </c>
       <c r="I16">
-        <v>15.14028299292646</v>
+        <v>8.391232000761203</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.42882719100155</v>
+        <v>20.49701068367763</v>
       </c>
       <c r="N16">
-        <v>15.77516531765805</v>
+        <v>11.13632893330146</v>
       </c>
       <c r="O16">
-        <v>15.23015038122338</v>
+        <v>10.9094438266701</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.14426578658191</v>
+        <v>20.68673826695545</v>
       </c>
       <c r="C17">
-        <v>9.530059791627322</v>
+        <v>14.00233456129431</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.11150694229949</v>
+        <v>15.32284400430112</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>17.05748557746532</v>
+        <v>18.42732086340157</v>
       </c>
       <c r="H17">
-        <v>11.03842902788372</v>
+        <v>6.624672251115651</v>
       </c>
       <c r="I17">
-        <v>15.176451592104</v>
+        <v>8.455644201508679</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.29937149518354</v>
+        <v>20.08283261236534</v>
       </c>
       <c r="N17">
-        <v>15.78515850225448</v>
+        <v>11.15329609224317</v>
       </c>
       <c r="O17">
-        <v>15.24291213132193</v>
+        <v>10.82318678423042</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.013243055735</v>
+        <v>20.44828257415032</v>
       </c>
       <c r="C18">
-        <v>9.461685076175456</v>
+        <v>13.85893064644851</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.07342640694332</v>
+        <v>15.11050769422553</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>17.03064143149555</v>
+        <v>18.22743175685697</v>
       </c>
       <c r="H18">
-        <v>11.04654811822325</v>
+        <v>6.623013797361022</v>
       </c>
       <c r="I18">
-        <v>15.19761677963524</v>
+        <v>8.494096879845721</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.2246095589276</v>
+        <v>19.84123239160407</v>
       </c>
       <c r="N18">
-        <v>15.79107051777764</v>
+        <v>11.16347424590608</v>
       </c>
       <c r="O18">
-        <v>15.25069942137259</v>
+        <v>10.77495280980593</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.96852311170593</v>
+        <v>20.36691996121231</v>
       </c>
       <c r="C19">
-        <v>9.438401795025444</v>
+        <v>13.81004397877963</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.06059199671625</v>
+        <v>15.03822835128678</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>17.02169207219632</v>
+        <v>18.15982081448261</v>
       </c>
       <c r="H19">
-        <v>11.04933327137421</v>
+        <v>6.6225761530011</v>
       </c>
       <c r="I19">
-        <v>15.20484508185094</v>
+        <v>8.507350945014899</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.19924715235053</v>
+        <v>19.75884918219327</v>
       </c>
       <c r="N19">
-        <v>15.79310044379887</v>
+        <v>11.16699155424871</v>
       </c>
       <c r="O19">
-        <v>15.25341274149199</v>
+        <v>10.75885730662368</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.16834502003559</v>
+        <v>20.73057399563482</v>
       </c>
       <c r="C20">
-        <v>9.542651011430099</v>
+        <v>14.02871722666294</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.11858250622472</v>
+        <v>15.36195988940522</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>17.06251994700407</v>
+        <v>18.46434691509507</v>
       </c>
       <c r="H20">
-        <v>11.03694355190517</v>
+        <v>6.625038512390659</v>
       </c>
       <c r="I20">
-        <v>15.17256391256532</v>
+        <v>8.448640476429151</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.31318420190494</v>
+        <v>20.12727156215111</v>
       </c>
       <c r="N20">
-        <v>15.7840777207902</v>
+        <v>11.15144633888473</v>
       </c>
       <c r="O20">
-        <v>15.24150732605617</v>
+        <v>10.83222603474019</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.81475104365535</v>
+        <v>21.90895245573993</v>
       </c>
       <c r="C21">
-        <v>9.883482342676976</v>
+        <v>14.74018199245347</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.31733535275646</v>
+        <v>16.42313748451546</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>17.20928646491081</v>
+        <v>19.49152944741299</v>
       </c>
       <c r="H21">
-        <v>10.99783504210724</v>
+        <v>6.642217323746401</v>
       </c>
       <c r="I21">
-        <v>15.06843094987005</v>
+        <v>8.268668885537119</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.69219300100399</v>
+        <v>21.32491879588662</v>
       </c>
       <c r="N21">
-        <v>15.75572313580017</v>
+        <v>11.10428591337378</v>
       </c>
       <c r="O21">
-        <v>15.20685586694384</v>
+        <v>11.09528237590946</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.21853779152592</v>
+        <v>22.64681383440199</v>
       </c>
       <c r="C22">
-        <v>10.09899278458132</v>
+        <v>15.18773717149353</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.44991976511709</v>
+        <v>17.09734727305242</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>17.31220141839842</v>
+        <v>20.18160096444879</v>
       </c>
       <c r="H22">
-        <v>10.97415671724808</v>
+        <v>6.660420188035754</v>
       </c>
       <c r="I22">
-        <v>15.00360546265419</v>
+        <v>8.165132342926967</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.93663795230497</v>
+        <v>22.07800844054109</v>
       </c>
       <c r="N22">
-        <v>15.73865000618901</v>
+        <v>11.07738714831294</v>
       </c>
       <c r="O22">
-        <v>15.18821259910888</v>
+        <v>11.27969010406657</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.00474171273053</v>
+        <v>22.25594871685486</v>
       </c>
       <c r="C23">
-        <v>9.984646308915012</v>
+        <v>14.95046817720974</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.37892578142741</v>
+        <v>16.73924760468851</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>17.25664416815107</v>
+        <v>19.80544140398349</v>
       </c>
       <c r="H23">
-        <v>10.98662190482789</v>
+        <v>6.650045066924948</v>
       </c>
       <c r="I23">
-        <v>15.03790795825662</v>
+        <v>8.219022227713307</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.80649762163172</v>
+        <v>21.67876070635082</v>
       </c>
       <c r="N23">
-        <v>15.74762902001615</v>
+        <v>11.09137495874328</v>
       </c>
       <c r="O23">
-        <v>15.1977955275478</v>
+        <v>11.1801173565658</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.15746547945982</v>
+        <v>20.71076753261879</v>
       </c>
       <c r="C24">
-        <v>9.536961046244278</v>
+        <v>14.01679586790784</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.11538264858929</v>
+        <v>15.34428285852241</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>17.06024142829225</v>
+        <v>18.44760656776955</v>
       </c>
       <c r="H24">
-        <v>11.03761446812567</v>
+        <v>6.62487065102138</v>
       </c>
       <c r="I24">
-        <v>15.17432037574417</v>
+        <v>8.451802450612146</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.30694051772172</v>
+        <v>20.10719156845501</v>
       </c>
       <c r="N24">
-        <v>15.78456582246786</v>
+        <v>11.1522812953253</v>
       </c>
       <c r="O24">
-        <v>15.24214103583105</v>
+        <v>10.82813516737198</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.16386244516981</v>
+        <v>18.9048684025174</v>
       </c>
       <c r="C25">
-        <v>9.024416119748006</v>
+        <v>12.93564506235334</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.84411527316082</v>
+        <v>13.94653046729903</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>16.87936605849923</v>
+        <v>16.99787040969436</v>
       </c>
       <c r="H25">
-        <v>11.10067137947908</v>
+        <v>6.625470940583543</v>
       </c>
       <c r="I25">
-        <v>15.33529816746625</v>
+        <v>8.755858495001544</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.75691000756917</v>
+        <v>18.28275507427708</v>
       </c>
       <c r="N25">
-        <v>15.83068821167836</v>
+        <v>11.23390283340187</v>
       </c>
       <c r="O25">
-        <v>15.30705066398344</v>
+        <v>10.50096349403127</v>
       </c>
     </row>
   </sheetData>
